--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Wael Abdelhamid Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1240235</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1363,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9588179051</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.4820217593</x:v>
+        <x:v>45914.9588179051</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45918.4820217593</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4189794329</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45909.4189794329</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9546473727</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45914.9546473727</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2253,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
   </x:si>
   <x:si>
     <x:t>1240055</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1180,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45921.5624914005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6710912384</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.671006713</x:v>
+        <x:v>45907.6710912384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7788608796</x:v>
+        <x:v>45907.671006713</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9568782407</x:v>
+        <x:v>45907.7788608796</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45914.9568782407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9588179051</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4820217593</x:v>
+        <x:v>45914.9588179051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45918.4820217593</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4189794329</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45909.4189794329</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.9546473727</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45914.9546473727</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Sameh Thabet Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdallah</x:t>
   </x:si>
   <x:si>
     <x:t>1240285</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -997,7 +1006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6653015394</x:v>
+        <x:v>45922.3597762384</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1029,7 +1038,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4151976852</x:v>
+        <x:v>45907.6653015394</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1061,7 +1070,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45909.4151976852</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1093,7 +1102,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6657106829</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1125,7 +1134,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4151448727</x:v>
+        <x:v>45907.6657106829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6649693287</x:v>
+        <x:v>45909.4151448727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45921.5624914005</x:v>
+        <x:v>45907.6649693287</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45921.5624914005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1285,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6710912384</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.671006713</x:v>
+        <x:v>45907.6710912384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7788608796</x:v>
+        <x:v>45907.671006713</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9568782407</x:v>
+        <x:v>45907.7788608796</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45914.9568782407</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9588179051</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4820217593</x:v>
+        <x:v>45914.9588179051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45918.4820217593</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4189794329</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45909.4189794329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.9546473727</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45914.9546473727</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Waleed Hamdy Mohamed Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240090</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1582,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45922.8211022801</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4189794329</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45909.4189794329</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45914.9546473727</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45914.9546473727</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
+    <x:t>Ahmed Mohammed Abdullah Hassan Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1240285</x:t>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -114,15 +114,6 @@
     <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
   </x:si>
   <x:si>
-    <x:t>4250172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد وليد رمضان فكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Walid Ramadan Fikry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240055</x:t>
   </x:si>
   <x:si>
@@ -400,6 +391,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Rami Mahmoud Bakr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1240161</x:t>
@@ -1239,7 +1239,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.5624914005</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1271,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6710912384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6710912384</x:v>
+        <x:v>45907.671006713</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.671006713</x:v>
+        <x:v>45907.7788608796</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7788608796</x:v>
+        <x:v>45914.9568782407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9568782407</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1463,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45914.9588179051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9588179051</x:v>
+        <x:v>45918.4820217593</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4820217593</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45922.8211022801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.8211022801</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45927.4646229514</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -1239,7 +1239,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45927.8396827546</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -123,15 +123,6 @@
     <x:t>Ramy Osama Bahr Tawfik</x:t>
   </x:si>
   <x:si>
-    <x:t>1240058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رغد احمد مصطفى محمد الموافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raghad Ahmed Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240066</x:t>
   </x:si>
   <x:si>
@@ -256,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1240117</x:t>
@@ -1271,7 +1271,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6710912384</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6710912384</x:v>
+        <x:v>45907.671006713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.671006713</x:v>
+        <x:v>45907.7788608796</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7788608796</x:v>
+        <x:v>45914.9568782407</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9568782407</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45914.9588179051</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1463,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9588179051</x:v>
+        <x:v>45918.4820217593</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4820217593</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45922.8211022801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.8211022801</x:v>
+        <x:v>45909.4165948727</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4165948727</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -159,13 +159,13 @@
     <x:t>Abdelrahman Wael Abdelhamid Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Khafagy</x:t>
+    <x:t>1240330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240235</x:t>
@@ -1399,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45928.9288621528</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Ezzeldin Mohamed Ezzeldin Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على حسن على حسن على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Hassan Ali Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -560,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1591,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3558070602</x:v>
+        <x:v>45937.4584574884</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45917.3558070602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9533064468</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.2778882755</x:v>
+        <x:v>45914.9533064468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9548903935</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9576119213</x:v>
+        <x:v>45914.9548903935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45914.9576119213</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6873184028</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9542953357</x:v>
+        <x:v>45907.6873184028</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45914.9542953357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9585666667</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9570804745</x:v>
+        <x:v>45914.9585666667</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45914.9570804745</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.950881794</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45914.950881794</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.4646229514</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45927.4646229514</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4189794329</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45909.4189794329</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45914.9546473727</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45914.9546473727</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2417,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35040.xlsx
+++ b/downloaded_files/GENS120_Lecture-35040.xlsx
@@ -219,7 +219,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -417,7 +417,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1240276</x:t>
